--- a/Graficos.xlsx
+++ b/Graficos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catarinabrito/Desktop/Pessoal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomasnascimento/Desktop/LEIC-T/2ºano/1ºSemestre/ASA/MissionFast_ASA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9425A9A-97FC-8D4F-9803-C5A1936A3EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF96B085-1E59-AE49-A935-DDFB5B05F833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16240" xr2:uid="{4FEF3563-A7CD-CB40-854E-EA82260B32FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -69,7 +69,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -290,6 +290,7 @@
         <c:axId val="485644448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -407,6 +408,7 @@
         <c:axId val="485656848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -774,6 +776,7 @@
         <c:axId val="753096432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2545,7 +2548,7 @@
   <dimension ref="A2:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
